--- a/Legales y Administrativos/Uso de información/27-05-2021 fuentes_de_información.xlsx
+++ b/Legales y Administrativos/Uso de información/27-05-2021 fuentes_de_información.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\Legales y Administrativos\Uso de información\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166D6FC8-3A26-41F4-A31D-5555CB1D2468}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D83BA-D7ED-40ED-BB6B-81E13A48AA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{8E6A4C0C-EE83-449B-9D0E-030A6AB2ED3F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8E6A4C0C-EE83-449B-9D0E-030A6AB2ED3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t xml:space="preserve">Red Chilena Contra la Violencia Hacia las Mujeres - SERNAMEG - Mesa Intersectorial </t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>http://www.sernapesca.cl/sites/default/files/</t>
+  </si>
+  <si>
+    <t>Gendarmería</t>
+  </si>
+  <si>
+    <t>https://www.gendarmeria.gob.cl/estadisticaspp.html</t>
   </si>
 </sst>
 </file>
@@ -364,46 +370,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -521,6 +487,46 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -535,14 +541,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{245F6292-5129-4799-8B87-6FB34E470B58}" name="Tabla1" displayName="Tabla1" ref="A2:E33" totalsRowShown="0">
-  <autoFilter ref="A2:E33" xr:uid="{6A7BC823-6D50-428B-A4D5-0C9A7569DEE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{245F6292-5129-4799-8B87-6FB34E470B58}" name="Tabla1" displayName="Tabla1" ref="A2:E34" totalsRowShown="0">
+  <autoFilter ref="A2:E34" xr:uid="{6A7BC823-6D50-428B-A4D5-0C9A7569DEE3}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{56977323-CFE5-4D6B-ACB3-A28D5DE6182A}" name="Columna1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CEC0E8B1-8ED1-4A79-A877-0FE71C00EF48}" name="Data" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{FE65F5EC-2445-4D31-905E-C67E6226AD02}" name="Fuentes" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{3FD25E91-9A58-4BFF-A455-B72196B66334}" name="Uso de datos" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{788704B7-C412-4163-9903-198789BD3DA6}" name="Links" dataDxfId="4" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="1" xr3:uid="{56977323-CFE5-4D6B-ACB3-A28D5DE6182A}" name="Columna1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{CEC0E8B1-8ED1-4A79-A877-0FE71C00EF48}" name="Data" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FE65F5EC-2445-4D31-905E-C67E6226AD02}" name="Fuentes" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{3FD25E91-9A58-4BFF-A455-B72196B66334}" name="Uso de datos" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{788704B7-C412-4163-9903-198789BD3DA6}" name="Links" dataDxfId="0" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -845,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEB270F-33D0-487D-A6E1-B046741FF077}">
-  <dimension ref="A2:E33"/>
+  <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1259,6 +1265,15 @@
       </c>
       <c r="E33" s="6" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1277,16 +1292,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D33">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="autorización ">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="autorización ">
       <formula>NOT(ISERROR(SEARCH("autorización ",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Contactar">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Contactar">
       <formula>NOT(ISERROR(SEARCH("Contactar",D14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"No comercial"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Público"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Legales y Administrativos/Uso de información/27-05-2021 fuentes_de_información.xlsx
+++ b/Legales y Administrativos/Uso de información/27-05-2021 fuentes_de_información.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\Legales y Administrativos\Uso de información\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982D83BA-D7ED-40ED-BB6B-81E13A48AA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E308EDA-D3CA-49CA-A53D-DA5BCD80F876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8E6A4C0C-EE83-449B-9D0E-030A6AB2ED3F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="MACRO" sheetId="1" r:id="rId1"/>
+    <sheet name="DETALLE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="89">
   <si>
     <t xml:space="preserve">Red Chilena Contra la Violencia Hacia las Mujeres - SERNAMEG - Mesa Intersectorial </t>
   </si>
@@ -84,9 +85,6 @@
     <t>Data Agro</t>
   </si>
   <si>
-    <t>Odepa</t>
-  </si>
-  <si>
     <t>https://www.odepa.gob.cl/estadisticas-del-sector/estadisticas-productivas</t>
   </si>
   <si>
@@ -271,6 +269,39 @@
   </si>
   <si>
     <t>https://www.gendarmeria.gob.cl/estadisticaspp.html</t>
+  </si>
+  <si>
+    <t>ODEPA - Oficina de Estudios y Políticas Agrarias</t>
+  </si>
+  <si>
+    <t>Base de Datos de Comercio Exterior</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Columna3</t>
+  </si>
+  <si>
+    <t>https://www.odepa.gob.cl/estadisticas-del-sector/comercio-exterior</t>
+  </si>
+  <si>
+    <t>Colección</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>DATAAGRO</t>
+  </si>
+  <si>
+    <t>Exportaciones, Importaciones</t>
+  </si>
+  <si>
+    <t>BD de Estadísticas Productivas</t>
+  </si>
+  <si>
+    <t>BD de Comercio Exterior</t>
   </si>
 </sst>
 </file>
@@ -369,9 +400,166 @@
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{8AE1F88E-226B-45E0-A8FE-9EA9C0EAC717}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -390,7 +578,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -409,6 +596,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -446,86 +635,157 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,14 +801,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{245F6292-5129-4799-8B87-6FB34E470B58}" name="Tabla1" displayName="Tabla1" ref="A2:E34" totalsRowShown="0">
-  <autoFilter ref="A2:E34" xr:uid="{6A7BC823-6D50-428B-A4D5-0C9A7569DEE3}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{56977323-CFE5-4D6B-ACB3-A28D5DE6182A}" name="Columna1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{CEC0E8B1-8ED1-4A79-A877-0FE71C00EF48}" name="Data" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FE65F5EC-2445-4D31-905E-C67E6226AD02}" name="Fuentes" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{3FD25E91-9A58-4BFF-A455-B72196B66334}" name="Uso de datos" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{788704B7-C412-4163-9903-198789BD3DA6}" name="Links" dataDxfId="0" dataCellStyle="Hipervínculo"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{245F6292-5129-4799-8B87-6FB34E470B58}" name="Tabla1" displayName="Tabla1" ref="A2:G34" totalsRowShown="0">
+  <autoFilter ref="A2:G34" xr:uid="{6A7BC823-6D50-428B-A4D5-0C9A7569DEE3}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{56977323-CFE5-4D6B-ACB3-A28D5DE6182A}" name="Columna1" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{CEC0E8B1-8ED1-4A79-A877-0FE71C00EF48}" name="Data" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{FE65F5EC-2445-4D31-905E-C67E6226AD02}" name="Fuentes" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{21CEDDCF-644F-47E5-B1DF-8707A8277D29}" name="Columna3"/>
+    <tableColumn id="6" xr3:uid="{3FD25E91-9A58-4BFF-A455-B72196B66334}" name="Uso de datos" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{788704B7-C412-4163-9903-198789BD3DA6}" name="Links" dataDxfId="25" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" xr3:uid="{12438A61-C4F6-4FB9-B8F6-3731744A8EE6}" name="Columna2" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CE13D1B-3124-4FFF-A6E6-9A0CE65F0C40}" name="Tabla13" displayName="Tabla13" ref="A2:H43" totalsRowShown="0">
+  <autoFilter ref="A2:H43" xr:uid="{3CE13D1B-3124-4FFF-A6E6-9A0CE65F0C40}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{93CFC4C8-622F-4979-9E5F-3AC4A6CA4A8A}" name="Columna1" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{6FF4FF41-DD08-473A-834F-8A22300836D0}" name="Data" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{EDEFDCB3-30F2-4566-9ABA-7C8EAE0F065B}" name="Fuentes" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{A3662FC1-E840-4595-A898-3D83EE1ED6C9}" name="Uso de datos" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{DC76A3A3-FD1F-4B42-AB8A-82877AD10545}" name="Columna3" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{3F33B766-2353-483C-9DA4-C005106E7518}" name="Links" dataDxfId="18" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" xr3:uid="{B584331A-7CD4-4D7E-9402-2B255A19F372}" name="Colección" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{E0728EBE-8C35-4558-9F5E-8FD6A62DF25E}" name="Tema" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -851,25 +1130,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEB270F-33D0-487D-A6E1-B046741FF077}">
-  <dimension ref="A2:E34"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.54296875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="1"/>
+    <col min="3" max="4" width="58.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.6328125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
@@ -877,14 +1157,20 @@
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -894,14 +1180,15 @@
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -911,14 +1198,14 @@
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -928,14 +1215,14 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -943,16 +1230,19 @@
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -962,379 +1252,399 @@
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="F23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="6" t="s">
+    <row r="34" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="5" t="s">
-        <v>78</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D13 E14:E33">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="autorización ">
-      <formula>NOT(ISERROR(SEARCH("autorización ",D3)))</formula>
+  <conditionalFormatting sqref="E3:E13 F14:F33">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="autorización ">
+      <formula>NOT(ISERROR(SEARCH("autorización ",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Contactar">
-      <formula>NOT(ISERROR(SEARCH("Contactar",D3)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Contactar">
+      <formula>NOT(ISERROR(SEARCH("Contactar",E3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"No comercial"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"Público"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D33">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="autorización ">
-      <formula>NOT(ISERROR(SEARCH("autorización ",D14)))</formula>
+  <conditionalFormatting sqref="E14:E33">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="autorización ">
+      <formula>NOT(ISERROR(SEARCH("autorización ",E14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Contactar">
-      <formula>NOT(ISERROR(SEARCH("Contactar",D14)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Contactar">
+      <formula>NOT(ISERROR(SEARCH("Contactar",E14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"No comercial"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Público"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{F2F2D100-ABD6-4BDE-9B37-2AC3DBBC474E}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{945D987E-CD35-4A11-823E-93FFE9400924}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{1EDEE09C-80CA-47CF-945A-CABB3FB9D998}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{E66183EE-B25F-40E1-AE42-064ED48F980E}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{34C3E9C5-69A6-4888-90E6-F3F585DEA7E3}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{C7BE2F1D-5A2F-4F24-8177-480E4001AFDE}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{D0052E84-4C4D-48E8-92CE-5D27AE8589EA}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{D7C2CE0B-7162-4A22-8606-08E77F2199AC}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{252471BB-CDD6-4BE6-B778-DF5DBE7340C5}"/>
-    <hyperlink ref="E13" r:id="rId10" xr:uid="{FFFF85CD-B62B-4107-A8C6-D3BC05F03652}"/>
-    <hyperlink ref="E27" r:id="rId11" location="datosabiertos " xr:uid="{FBD381E0-F15D-45D0-A9A2-ABADED8478D3}"/>
-    <hyperlink ref="E15" r:id="rId12" xr:uid="{EE457F07-2117-444C-B205-14332D5F3C56}"/>
-    <hyperlink ref="E25" r:id="rId13" xr:uid="{1B3D93D2-7F41-4D13-9B09-9098660363F0}"/>
-    <hyperlink ref="E24" r:id="rId14" xr:uid="{E13D4492-69D9-4DF2-A487-DD6D6C39E80A}"/>
-    <hyperlink ref="E14" r:id="rId15" xr:uid="{764ED322-69D1-4781-A5C8-D9136DB2F2E6}"/>
-    <hyperlink ref="E16" r:id="rId16" xr:uid="{D894B7EE-79FF-4850-82D3-B99DED78ECA5}"/>
-    <hyperlink ref="E17" r:id="rId17" xr:uid="{4542365D-8115-4E00-955A-439E42AD01E9}"/>
-    <hyperlink ref="E18" r:id="rId18" xr:uid="{DA45A962-CD76-4949-BD3F-D577951A3A48}"/>
-    <hyperlink ref="E19" r:id="rId19" xr:uid="{16E09A90-C43F-4CBB-9815-CC7AB0076BCE}"/>
-    <hyperlink ref="E21" r:id="rId20" xr:uid="{A5391AB0-8393-4270-83FE-167C806845A0}"/>
-    <hyperlink ref="E20" r:id="rId21" xr:uid="{74207EBC-8240-4903-82DE-83AABD7D239E}"/>
-    <hyperlink ref="E32" r:id="rId22" location="/bases" xr:uid="{52D5181C-8315-4E99-A663-B7B4219CA3A0}"/>
-    <hyperlink ref="E31" r:id="rId23" xr:uid="{C2C87C81-8B30-412A-AF37-C2383BF75D50}"/>
-    <hyperlink ref="E29" r:id="rId24" xr:uid="{CB29DEB1-6FC9-4290-834E-67546F9FD2D7}"/>
-    <hyperlink ref="E22" r:id="rId25" xr:uid="{2D7AE669-F89C-4687-9C4B-F89CC7EA86A6}"/>
-    <hyperlink ref="E23" r:id="rId26" location="/busquedaPublica" xr:uid="{F5F05F6E-B3BD-4679-98A5-7CA64F5348F1}"/>
-    <hyperlink ref="E26" r:id="rId27" xr:uid="{A8263F40-6DB6-4401-B911-BCCECAC889BA}"/>
-    <hyperlink ref="E28" r:id="rId28" xr:uid="{0C65FB89-B9A1-4450-974A-611FBB8FD52E}"/>
-    <hyperlink ref="E33" r:id="rId29" xr:uid="{E17609EF-C3EF-4FB0-95A6-F30375D5A928}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{F2F2D100-ABD6-4BDE-9B37-2AC3DBBC474E}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{945D987E-CD35-4A11-823E-93FFE9400924}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{1EDEE09C-80CA-47CF-945A-CABB3FB9D998}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{E66183EE-B25F-40E1-AE42-064ED48F980E}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{34C3E9C5-69A6-4888-90E6-F3F585DEA7E3}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{C7BE2F1D-5A2F-4F24-8177-480E4001AFDE}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{D0052E84-4C4D-48E8-92CE-5D27AE8589EA}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{D7C2CE0B-7162-4A22-8606-08E77F2199AC}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{252471BB-CDD6-4BE6-B778-DF5DBE7340C5}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{FFFF85CD-B62B-4107-A8C6-D3BC05F03652}"/>
+    <hyperlink ref="F27" r:id="rId11" location="datosabiertos " xr:uid="{FBD381E0-F15D-45D0-A9A2-ABADED8478D3}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{EE457F07-2117-444C-B205-14332D5F3C56}"/>
+    <hyperlink ref="F25" r:id="rId13" xr:uid="{1B3D93D2-7F41-4D13-9B09-9098660363F0}"/>
+    <hyperlink ref="F24" r:id="rId14" xr:uid="{E13D4492-69D9-4DF2-A487-DD6D6C39E80A}"/>
+    <hyperlink ref="F14" r:id="rId15" xr:uid="{764ED322-69D1-4781-A5C8-D9136DB2F2E6}"/>
+    <hyperlink ref="F16" r:id="rId16" xr:uid="{D894B7EE-79FF-4850-82D3-B99DED78ECA5}"/>
+    <hyperlink ref="F17" r:id="rId17" xr:uid="{4542365D-8115-4E00-955A-439E42AD01E9}"/>
+    <hyperlink ref="F18" r:id="rId18" xr:uid="{DA45A962-CD76-4949-BD3F-D577951A3A48}"/>
+    <hyperlink ref="F19" r:id="rId19" xr:uid="{16E09A90-C43F-4CBB-9815-CC7AB0076BCE}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{A5391AB0-8393-4270-83FE-167C806845A0}"/>
+    <hyperlink ref="F20" r:id="rId21" xr:uid="{74207EBC-8240-4903-82DE-83AABD7D239E}"/>
+    <hyperlink ref="F32" r:id="rId22" location="/bases" xr:uid="{52D5181C-8315-4E99-A663-B7B4219CA3A0}"/>
+    <hyperlink ref="F31" r:id="rId23" xr:uid="{C2C87C81-8B30-412A-AF37-C2383BF75D50}"/>
+    <hyperlink ref="F29" r:id="rId24" xr:uid="{CB29DEB1-6FC9-4290-834E-67546F9FD2D7}"/>
+    <hyperlink ref="F22" r:id="rId25" xr:uid="{2D7AE669-F89C-4687-9C4B-F89CC7EA86A6}"/>
+    <hyperlink ref="F23" r:id="rId26" location="/busquedaPublica" xr:uid="{F5F05F6E-B3BD-4679-98A5-7CA64F5348F1}"/>
+    <hyperlink ref="F26" r:id="rId27" xr:uid="{A8263F40-6DB6-4401-B911-BCCECAC889BA}"/>
+    <hyperlink ref="F28" r:id="rId28" xr:uid="{0C65FB89-B9A1-4450-974A-611FBB8FD52E}"/>
+    <hyperlink ref="F33" r:id="rId29" xr:uid="{E17609EF-C3EF-4FB0-95A6-F30375D5A928}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId30"/>
@@ -1342,4 +1652,569 @@
     <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E42C9CE-FDF5-455D-8A4A-13C2ECAAEC28}">
+  <dimension ref="A2:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="75.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.81640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="C43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F23:F42 D6:E22">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="autorización ">
+      <formula>NOT(ISERROR(SEARCH("autorización ",D6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Contactar">
+      <formula>NOT(ISERROR(SEARCH("Contactar",D6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"No comercial"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Público"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:E42">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="autorización ">
+      <formula>NOT(ISERROR(SEARCH("autorización ",D23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Contactar">
+      <formula>NOT(ISERROR(SEARCH("Contactar",D23)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"No comercial"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Público"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{436B5258-F249-4CCE-A2A3-267D65AFE592}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{EE46DC25-E796-43C1-BF6A-8FCB45E29827}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{6BED54A0-5265-442C-A6DC-AB9E01CDCBBB}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{02E15EAB-AC9C-40BA-B258-9B05F3D63D8D}"/>
+    <hyperlink ref="F17" r:id="rId5" xr:uid="{0DD47790-CD80-4FD2-A979-42FBA1EF2250}"/>
+    <hyperlink ref="F18" r:id="rId6" xr:uid="{53BC3CD6-FA47-4955-BD60-82CE8581A064}"/>
+    <hyperlink ref="F19" r:id="rId7" xr:uid="{0896B05B-7842-4137-A2A6-6E43C8C12316}"/>
+    <hyperlink ref="F20" r:id="rId8" xr:uid="{E02E55A3-F23D-4E21-9859-F97F4BDCDCDD}"/>
+    <hyperlink ref="F21" r:id="rId9" xr:uid="{9CF59F77-4DF0-4819-8A37-F3D30F5CF6F1}"/>
+    <hyperlink ref="F22" r:id="rId10" xr:uid="{DC9E56D3-CA12-4DB1-A4F7-CD91E60BF832}"/>
+    <hyperlink ref="F36" r:id="rId11" location="datosabiertos " xr:uid="{4914679A-0696-4F5A-BC89-72157BADEB3C}"/>
+    <hyperlink ref="F24" r:id="rId12" xr:uid="{156DA7E2-932C-4A05-98E7-B95684698F5A}"/>
+    <hyperlink ref="F34" r:id="rId13" xr:uid="{4093CF72-6E56-4CE3-B30B-BB2C4FAE5AD0}"/>
+    <hyperlink ref="F33" r:id="rId14" xr:uid="{C22926F9-C0A8-42FA-9A7A-EC4E13150EE7}"/>
+    <hyperlink ref="F23" r:id="rId15" xr:uid="{BE09A709-23C4-436F-8311-93E8666DA0AC}"/>
+    <hyperlink ref="F25" r:id="rId16" xr:uid="{57DFA187-C625-4F41-9259-79A1A0DCD9D6}"/>
+    <hyperlink ref="F26" r:id="rId17" xr:uid="{35E6B77F-73EE-4481-9166-7A7E73FCA83D}"/>
+    <hyperlink ref="F27" r:id="rId18" xr:uid="{795BE454-88EA-4CF2-8118-4B8B648C86CD}"/>
+    <hyperlink ref="F28" r:id="rId19" xr:uid="{CB3CDDE0-CDD7-4E18-AA34-DDE2EF82B460}"/>
+    <hyperlink ref="F30" r:id="rId20" xr:uid="{F518428D-6D04-4B4D-98B9-39D5B3239B52}"/>
+    <hyperlink ref="F29" r:id="rId21" xr:uid="{2A235B6C-2F1F-4AF0-AE6C-FA711A65CE61}"/>
+    <hyperlink ref="F41" r:id="rId22" location="/bases" xr:uid="{C7514F48-1CC6-4F7A-8973-96F6AF0CD0CC}"/>
+    <hyperlink ref="F40" r:id="rId23" xr:uid="{663330DE-5FFE-4A29-8852-BD555D7B4410}"/>
+    <hyperlink ref="F38" r:id="rId24" xr:uid="{B1CD0435-7E8C-4AF4-8B14-9C1B0B728A10}"/>
+    <hyperlink ref="F31" r:id="rId25" xr:uid="{B77F50B9-4182-40B8-AC16-63325AE83E8F}"/>
+    <hyperlink ref="F32" r:id="rId26" location="/busquedaPublica" xr:uid="{9C0FF486-6022-40C2-B5CA-6058FF761E4B}"/>
+    <hyperlink ref="F35" r:id="rId27" xr:uid="{53F39A53-895D-4BDE-B28A-38F7C3D3C59B}"/>
+    <hyperlink ref="F37" r:id="rId28" xr:uid="{1818464C-6CFC-4D52-8F43-EEB80053DAA6}"/>
+    <hyperlink ref="F42" r:id="rId29" xr:uid="{483C5FE9-2557-4750-97B3-47C10FE91E32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId30"/>
+  </tableParts>
+</worksheet>
 </file>